--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -664,9 +664,33 @@
         <v>2025-08-11 15:59:00.064</v>
       </c>
     </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.81%</v>
+      </c>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.38%</v>
+      </c>
+      <c r="D13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.87%</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2025-08-11 16:08:48.220</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -688,9 +688,33 @@
         <v>2025-08-11 16:08:48.220</v>
       </c>
     </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.81%</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.38%</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.87%</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2025-08-11 16:18:38.181</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,9 +712,57 @@
         <v>2025-08-11 16:18:38.181</v>
       </c>
     </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.81%</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.38%</v>
+      </c>
+      <c r="D15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.87%</v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2025-08-11 16:28:39.277</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.81%</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.38%</v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.87%</v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2025-08-11 16:39:04.509</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,9 +760,57 @@
         <v>2025-08-11 16:39:04.509</v>
       </c>
     </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.47%</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.85%</v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.91%</v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2025-08-11 19:17:27.160</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.47%</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.85%</v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.91%</v>
+      </c>
+      <c r="E18" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2025-08-11 19:25:56.343</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -808,9 +808,81 @@
         <v>2025-08-11 19:25:56.343</v>
       </c>
     </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.24%</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.83%</v>
+      </c>
+      <c r="D19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E19" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2025-08-11 19:35:57.397</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.01%</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.81%</v>
+      </c>
+      <c r="D20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E20" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2025-08-11 19:46:20.088</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.01%</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.81%</v>
+      </c>
+      <c r="D21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E21" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2025-08-11 19:55:46.062</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -880,9 +880,81 @@
         <v>2025-08-11 19:55:46.062</v>
       </c>
     </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B22" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+166.01%</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+112.2%</v>
+      </c>
+      <c r="D22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.91%</v>
+      </c>
+      <c r="E22" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2025-08-11 20:06:02.874</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+165.84%</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+112.17%</v>
+      </c>
+      <c r="D23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E23" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2025-08-11 20:15:43.479</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B24" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+165.84%</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+112.17%</v>
+      </c>
+      <c r="D24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E24" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2025-08-11 20:25:58.913</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -952,9 +952,57 @@
         <v>2025-08-11 20:25:58.913</v>
       </c>
     </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+165.84%</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+112.17%</v>
+      </c>
+      <c r="D25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E25" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2025-08-11 20:35:48.062</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+165.84%</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+112.17%</v>
+      </c>
+      <c r="D26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E26" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2025-08-11 20:45:41.725</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1000,9 +1000,105 @@
         <v>2025-08-11 20:45:41.725</v>
       </c>
     </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+165.84%</v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+112.17%</v>
+      </c>
+      <c r="D27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E27" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2025-08-11 20:56:16.640</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+165.84%</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+112.23%</v>
+      </c>
+      <c r="D28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E28" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2025-08-11 21:05:57.631</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B29" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+165.84%</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+112.23%</v>
+      </c>
+      <c r="D29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E29" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2025-08-11 21:15:43.072</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+162%</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.59%</v>
+      </c>
+      <c r="D30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.82%</v>
+      </c>
+      <c r="E30" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2025-08-11 21:26:03.212</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1096,9 +1096,57 @@
         <v>2025-08-11 21:26:03.212</v>
       </c>
     </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+161.44%</v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.5%</v>
+      </c>
+      <c r="D31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.81%</v>
+      </c>
+      <c r="E31" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2025-08-11 21:35:48.743</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+161.76%</v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.63%</v>
+      </c>
+      <c r="D32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.83%</v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2025-08-11 21:45:57.692</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1144,9 +1144,81 @@
         <v>2025-08-11 21:45:57.692</v>
       </c>
     </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B33" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+161.24%</v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.55%</v>
+      </c>
+      <c r="D33" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.82%</v>
+      </c>
+      <c r="E33" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F33" t="str">
+        <v>2025-08-11 21:55:40.410</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B34" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+160.78%</v>
+      </c>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.9%</v>
+      </c>
+      <c r="D34" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.82%</v>
+      </c>
+      <c r="E34" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2025-08-11 22:05:53.810</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B35" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+160.78%</v>
+      </c>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+111.9%</v>
+      </c>
+      <c r="D35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.82%</v>
+      </c>
+      <c r="E35" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2025-08-11 22:15:56.923</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1216,9 +1216,49 @@
         <v>2025-08-11 22:15:56.923</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>2025-08-11 22:25:46.019</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>2025-08-11 22:35:32.991</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1256,9 +1256,97 @@
         <v>2025-08-11 22:35:32.991</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>2025-08-11 22:45:34.180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>2025-08-11 22:55:46.634</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+132.71%</v>
+      </c>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+110.38%</v>
+      </c>
+      <c r="D40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E40" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2025-08-12 09:52:11.594</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+132.71%</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+110.38%</v>
+      </c>
+      <c r="D41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E41" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2025-08-12 09:58:56.482</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1344,9 +1344,57 @@
         <v>2025-08-12 09:58:56.482</v>
       </c>
     </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B42" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+102.95%</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+110.39%</v>
+      </c>
+      <c r="D42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E42" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2025-08-12 10:09:02.370</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B43" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+102.95%</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+110.39%</v>
+      </c>
+      <c r="D43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E43" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F43" t="str">
+        <v>2025-08-12 10:18:47.301</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F43"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1392,9 +1392,57 @@
         <v>2025-08-12 10:18:47.301</v>
       </c>
     </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B44" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+102.95%</v>
+      </c>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+110.39%</v>
+      </c>
+      <c r="D44" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E44" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F44" t="str">
+        <v>2025-08-12 10:29:05.014</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B45" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+102.95%</v>
+      </c>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+110.39%</v>
+      </c>
+      <c r="D45" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E45" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F45" t="str">
+        <v>2025-08-12 10:39:26.394</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F43"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,9 +1440,33 @@
         <v>2025-08-12 10:39:26.394</v>
       </c>
     </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B46" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+102.95%</v>
+      </c>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+110.39%</v>
+      </c>
+      <c r="D46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.9%</v>
+      </c>
+      <c r="E46" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F46" t="str">
+        <v>2025-08-12 10:48:50.355</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F46"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/the-dog-house-megaways.xlsx
+++ b/data/raw/the-dog-house-megaways.xlsx
@@ -375,38 +375,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A47:F47"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
-    <row r="47" xml:space="preserve">
-      <c r="A47" t="str">
+    <row r="1" xml:space="preserve">
+      <c r="A1" t="str">
         <v>The Dog House Megaways</v>
       </c>
-      <c r="B47" t="str" xml:space="preserve">
+      <c r="B1" t="str" xml:space="preserve">
         <v xml:space="preserve">24H
 103.72%</v>
       </c>
-      <c r="C47" t="str" xml:space="preserve">
+      <c r="C1" t="str" xml:space="preserve">
         <v xml:space="preserve">Week
 110.53%</v>
       </c>
-      <c r="D47" t="str" xml:space="preserve">
+      <c r="D1" t="str" xml:space="preserve">
         <v xml:space="preserve">Month
 101.97%</v>
       </c>
-      <c r="E47" t="str" xml:space="preserve">
+      <c r="E1" t="str" xml:space="preserve">
         <v xml:space="preserve">RTP
 96.55%</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F1" t="str">
         <v>2025-08-12 19:27:34.300</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>The Dog House Megaways</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+103.72%</v>
+      </c>
+      <c r="C2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+110.53%</v>
+      </c>
+      <c r="D2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+101.97%</v>
+      </c>
+      <c r="E2" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.55%</v>
+      </c>
+      <c r="F2" t="str">
+        <v>2025-08-12 19:48:11.578</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A47:F47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>